--- a/Kode/Server2/Logs/lora_node3/2020-05-24.xlsx
+++ b/Kode/Server2/Logs/lora_node3/2020-05-24.xlsx
@@ -2563,7 +2563,7 @@
         <v>0.015</v>
       </c>
       <c r="F110" t="n">
-        <v>5.58e-06</v>
+        <v>0.00558</v>
       </c>
     </row>
     <row r="111">
@@ -2583,7 +2583,7 @@
         <v>0.015</v>
       </c>
       <c r="F111" t="n">
-        <v>5.7e-06</v>
+        <v>0.005699999999999999</v>
       </c>
     </row>
     <row r="112">
@@ -2603,7 +2603,7 @@
         <v>0.015</v>
       </c>
       <c r="F112" t="n">
-        <v>5.88e-06</v>
+        <v>0.00588</v>
       </c>
     </row>
     <row r="113">
@@ -2623,7 +2623,7 @@
         <v>0.03</v>
       </c>
       <c r="F113" t="n">
-        <v>1.272e-05</v>
+        <v>0.01272</v>
       </c>
     </row>
     <row r="114">
@@ -2643,7 +2643,7 @@
         <v>0.06</v>
       </c>
       <c r="F114" t="n">
-        <v>2.76e-05</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="115">
@@ -2663,7 +2663,7 @@
         <v>0.075</v>
       </c>
       <c r="F115" t="n">
-        <v>3.54e-05</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="116">
@@ -2683,7 +2683,7 @@
         <v>0.075</v>
       </c>
       <c r="F116" t="n">
-        <v>3.63e-05</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="117">
@@ -2703,7 +2703,7 @@
         <v>0.09</v>
       </c>
       <c r="F117" t="n">
-        <v>4.464e-05</v>
+        <v>0.04464</v>
       </c>
     </row>
     <row r="118">
@@ -2723,7 +2723,7 @@
         <v>0.09</v>
       </c>
       <c r="F118" t="n">
-        <v>4.716e-05</v>
+        <v>0.04716</v>
       </c>
     </row>
     <row r="119">
@@ -2743,7 +2743,7 @@
         <v>0.105</v>
       </c>
       <c r="F119" t="n">
-        <v>5.67e-05</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="120">
@@ -2763,7 +2763,7 @@
         <v>0.105</v>
       </c>
       <c r="F120" t="n">
-        <v>5.838e-05</v>
+        <v>0.05838</v>
       </c>
     </row>
     <row r="121">
@@ -2783,7 +2783,7 @@
         <v>0.105</v>
       </c>
       <c r="F121" t="n">
-        <v>6.006e-05</v>
+        <v>0.06006</v>
       </c>
     </row>
     <row r="122">
@@ -2803,7 +2803,7 @@
         <v>0.135</v>
       </c>
       <c r="F122" t="n">
-        <v>8.424000000000001e-05</v>
+        <v>0.08424000000000001</v>
       </c>
     </row>
     <row r="123">
@@ -2823,7 +2823,7 @@
         <v>0.165</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00011286</v>
+        <v>0.11286</v>
       </c>
     </row>
     <row r="124">
@@ -2843,7 +2843,7 @@
         <v>0.15</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0001056</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="125">
@@ -2863,7 +2863,7 @@
         <v>0.165</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00012276</v>
+        <v>0.12276</v>
       </c>
     </row>
     <row r="126">
@@ -2883,7 +2883,7 @@
         <v>0.165</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0001254</v>
+        <v>0.1254</v>
       </c>
     </row>
     <row r="127">
@@ -2903,7 +2903,7 @@
         <v>0.18</v>
       </c>
       <c r="F127" t="n">
-        <v>0.00014112</v>
+        <v>0.14112</v>
       </c>
     </row>
     <row r="128">
@@ -2923,7 +2923,7 @@
         <v>0.21</v>
       </c>
       <c r="F128" t="n">
-        <v>0.00017892</v>
+        <v>0.17892</v>
       </c>
     </row>
     <row r="129">
@@ -2943,7 +2943,7 @@
         <v>0.24</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0002112</v>
+        <v>0.2112</v>
       </c>
     </row>
     <row r="130">
@@ -2963,7 +2963,7 @@
         <v>0.285</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0002656199999999999</v>
+        <v>0.2656199999999999</v>
       </c>
     </row>
     <row r="131">
@@ -2983,7 +2983,7 @@
         <v>0.3</v>
       </c>
       <c r="F131" t="n">
-        <v>0.000288</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="132">
@@ -3003,7 +3003,7 @@
         <v>0.315</v>
       </c>
       <c r="F132" t="n">
-        <v>0.00031122</v>
+        <v>0.31122</v>
       </c>
     </row>
     <row r="133">
@@ -3023,7 +3023,7 @@
         <v>0.345</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0003519</v>
+        <v>0.3519</v>
       </c>
     </row>
     <row r="134">
@@ -3043,7 +3043,7 @@
         <v>0.39</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0004243200000000001</v>
+        <v>0.4243200000000001</v>
       </c>
     </row>
     <row r="135">
@@ -3063,7 +3063,7 @@
         <v>0.405</v>
       </c>
       <c r="F135" t="n">
-        <v>0.00045522</v>
+        <v>0.45522</v>
       </c>
     </row>
     <row r="136">
@@ -3083,7 +3083,7 @@
         <v>0.435</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0005045999999999999</v>
+        <v>0.5045999999999999</v>
       </c>
     </row>
     <row r="137">
@@ -3103,7 +3103,7 @@
         <v>0.45</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0005399999999999999</v>
+        <v>0.5399999999999999</v>
       </c>
     </row>
     <row r="138">
@@ -3123,7 +3123,7 @@
         <v>0.57</v>
       </c>
       <c r="F138" t="n">
-        <v>0.00087552</v>
+        <v>0.87552</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3143,7 @@
         <v>0.645</v>
       </c>
       <c r="F139" t="n">
-        <v>0.00115326</v>
+        <v>1.15326</v>
       </c>
     </row>
     <row r="140">
@@ -3163,7 +3163,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0013689</v>
+        <v>1.3689</v>
       </c>
     </row>
     <row r="141">
@@ -3183,7 +3183,7 @@
         <v>0.705</v>
       </c>
       <c r="F141" t="n">
-        <v>0.00177096</v>
+        <v>1.77096</v>
       </c>
     </row>
     <row r="142">
@@ -3203,7 +3203,7 @@
         <v>0.75</v>
       </c>
       <c r="F142" t="n">
-        <v>0.001749</v>
+        <v>1.749</v>
       </c>
     </row>
     <row r="143">
@@ -3223,7 +3223,7 @@
         <v>0.765</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0017748</v>
+        <v>1.7748</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>0.825</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0018612</v>
+        <v>1.8612</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>0.885</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00198594</v>
+        <v>1.98594</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0020496</v>
+        <v>2.0496</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>0.99</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00224532</v>
+        <v>2.24532</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>1.035</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0023184</v>
+        <v>2.3184</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>1.065</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00239412</v>
+        <v>2.39412</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>1.17</v>
       </c>
       <c r="F150" t="n">
-        <v>0.00254124</v>
+        <v>2.54124</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>1.245</v>
       </c>
       <c r="F151" t="n">
-        <v>0.00276888</v>
+        <v>2.76888</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>1.335</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00290496</v>
+        <v>2.90496</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>1.35</v>
       </c>
       <c r="F153" t="n">
-        <v>0.002943</v>
+        <v>2.943</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>1.38</v>
       </c>
       <c r="F154" t="n">
-        <v>0.00305808</v>
+        <v>3.05808</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>1.41</v>
       </c>
       <c r="F155" t="n">
-        <v>0.00309072</v>
+        <v>3.09072</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>1.545</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00335574</v>
+        <v>3.35574</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>1.575</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0033579</v>
+        <v>3.3579</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>1.68</v>
       </c>
       <c r="F158" t="n">
-        <v>0.00360192</v>
+        <v>3.60192</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>1.8</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0038952</v>
+        <v>3.8952</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>1.875</v>
       </c>
       <c r="F160" t="n">
-        <v>0.004050000000000001</v>
+        <v>4.050000000000001</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>1.905</v>
       </c>
       <c r="F161" t="n">
-        <v>0.004091940000000001</v>
+        <v>4.091940000000001</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>1.95</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0040248</v>
+        <v>4.0248</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>1.98</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00403128</v>
+        <v>4.03128</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>2.01</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0041004</v>
+        <v>4.1004</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>2.04</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00411264</v>
+        <v>4.11264</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>2.175</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0039846</v>
+        <v>3.984599999999999</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>2.25</v>
       </c>
       <c r="F167" t="n">
-        <v>0.004167</v>
+        <v>4.167</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>2.28</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00425904</v>
+        <v>4.259040000000001</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>2.37</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00449352</v>
+        <v>4.49352</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>2.4</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0045984</v>
+        <v>4.5984</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>2.49</v>
       </c>
       <c r="F171" t="n">
-        <v>0.004830599999999999</v>
+        <v>4.8306</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>2.52</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00492912</v>
+        <v>4.92912</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>2.58</v>
       </c>
       <c r="F173" t="n">
-        <v>0.00507744</v>
+        <v>5.07744</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>2.61</v>
       </c>
       <c r="F174" t="n">
-        <v>0.005167799999999999</v>
+        <v>5.1678</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>2.625</v>
       </c>
       <c r="F175" t="n">
-        <v>0.005229</v>
+        <v>5.229</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>2.73</v>
       </c>
       <c r="F176" t="n">
-        <v>0.00553644</v>
+        <v>5.53644</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>2.76</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0056304</v>
+        <v>5.6304</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>2.79</v>
       </c>
       <c r="F178" t="n">
-        <v>0.00572508</v>
+        <v>5.725079999999999</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>2.835</v>
       </c>
       <c r="F179" t="n">
-        <v>0.00586278</v>
+        <v>5.86278</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>2.88</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0059904</v>
+        <v>5.9904</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>2.985</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00625656</v>
+        <v>6.25656</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>3.075</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0064821</v>
+        <v>6.4821</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>3.105</v>
       </c>
       <c r="F183" t="n">
-        <v>0.00655776</v>
+        <v>6.55776</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>3.15</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0066276</v>
+        <v>6.6276</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>3.18</v>
       </c>
       <c r="F185" t="n">
-        <v>0.006767039999999999</v>
+        <v>6.76704</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>3.21</v>
       </c>
       <c r="F186" t="n">
-        <v>0.00683088</v>
+        <v>6.830880000000001</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>3.27</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0069324</v>
+        <v>6.9324</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>3.345</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00713154</v>
+        <v>7.131539999999999</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>3.39</v>
       </c>
       <c r="F189" t="n">
-        <v>0.00730884</v>
+        <v>7.30884</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>3.555</v>
       </c>
       <c r="F190" t="n">
-        <v>0.00770724</v>
+        <v>7.70724</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>3.6</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0078048</v>
+        <v>7.8048</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>3.645</v>
       </c>
       <c r="F192" t="n">
-        <v>0.007931520000000001</v>
+        <v>7.931520000000001</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>3.66</v>
       </c>
       <c r="F193" t="n">
-        <v>0.007993439999999999</v>
+        <v>7.99344</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>3.75</v>
       </c>
       <c r="F194" t="n">
-        <v>0.008115000000000001</v>
+        <v>8.115</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>3.78</v>
       </c>
       <c r="F195" t="n">
-        <v>0.008270640000000001</v>
+        <v>8.27064</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>3.81</v>
       </c>
       <c r="F196" t="n">
-        <v>0.008229600000000002</v>
+        <v>8.229600000000001</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>3.855</v>
       </c>
       <c r="F197" t="n">
-        <v>0.00846558</v>
+        <v>8.465580000000001</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>3.87</v>
       </c>
       <c r="F198" t="n">
-        <v>0.008483040000000001</v>
+        <v>8.483040000000001</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>3.93</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00861456</v>
+        <v>8.614560000000001</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>3.99</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00879396</v>
+        <v>8.79396</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>4.02</v>
       </c>
       <c r="F201" t="n">
-        <v>0.008843999999999999</v>
+        <v>8.843999999999999</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>4.065</v>
       </c>
       <c r="F202" t="n">
-        <v>0.008975519999999999</v>
+        <v>8.975519999999999</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>4.17</v>
       </c>
       <c r="F203" t="n">
-        <v>0.009240720000000001</v>
+        <v>9.240720000000001</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>4.38</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00961848</v>
+        <v>9.61848</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>7.109999999999999</v>
       </c>
       <c r="F205" t="n">
-        <v>0.01567044</v>
+        <v>15.67044</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>8.025</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0175587</v>
+        <v>17.5587</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>9.629999999999999</v>
       </c>
       <c r="F207" t="n">
-        <v>0.01779624</v>
+        <v>17.79624</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>11.685</v>
       </c>
       <c r="F208" t="n">
-        <v>0.02449176</v>
+        <v>24.49176</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>11.91</v>
       </c>
       <c r="F209" t="n">
-        <v>0.02534448</v>
+        <v>25.34448</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>12.435</v>
       </c>
       <c r="F210" t="n">
-        <v>0.02392494</v>
+        <v>23.92494</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>7.859999999999999</v>
       </c>
       <c r="F211" t="n">
-        <v>0.00782856</v>
+        <v>7.82856</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>14.775</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0283089</v>
+        <v>28.3089</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>15.21</v>
       </c>
       <c r="F213" t="n">
-        <v>0.02975076</v>
+        <v>29.75076</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>0.285</v>
       </c>
       <c r="F214" t="n">
-        <v>1.026e-05</v>
+        <v>0.01026</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>14.37</v>
       </c>
       <c r="F215" t="n">
-        <v>0.02540616</v>
+        <v>25.40616</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>17.19</v>
       </c>
       <c r="F216" t="n">
-        <v>0.03664908</v>
+        <v>36.64908</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>17.55</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0374166</v>
+        <v>37.4166</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>18.075</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0383913</v>
+        <v>38.3913</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>18.18</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0385416</v>
+        <v>38.5416</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>18.645</v>
       </c>
       <c r="F220" t="n">
-        <v>0.04057152</v>
+        <v>40.57152</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>18.96</v>
       </c>
       <c r="F221" t="n">
-        <v>0.04102944000000001</v>
+        <v>41.02944000000001</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>19.125</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0418455</v>
+        <v>41.8455</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>19.32</v>
       </c>
       <c r="F223" t="n">
-        <v>0.04180848</v>
+        <v>41.80848</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>19.485</v>
       </c>
       <c r="F224" t="n">
-        <v>0.04224348</v>
+        <v>42.24348</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>19.605</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0427389</v>
+        <v>42.7389</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>20.025</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0428535</v>
+        <v>42.8535</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>20.205</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0440469</v>
+        <v>44.0469</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>20.34</v>
       </c>
       <c r="F228" t="n">
-        <v>0.04417848</v>
+        <v>44.17848</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>20.535</v>
       </c>
       <c r="F229" t="n">
-        <v>0.04493058</v>
+        <v>44.93058</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>20.88</v>
       </c>
       <c r="F230" t="n">
-        <v>0.04501728</v>
+        <v>45.01728</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>21.255</v>
       </c>
       <c r="F231" t="n">
-        <v>0.04642092</v>
+        <v>46.42092</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>21.615</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0466884</v>
+        <v>46.6884</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>22.05</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0478926</v>
+        <v>47.8926</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>22.17</v>
       </c>
       <c r="F234" t="n">
-        <v>0.04806456</v>
+        <v>48.06456</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>22.29</v>
       </c>
       <c r="F235" t="n">
-        <v>0.04823556</v>
+        <v>48.23556</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>22.395</v>
       </c>
       <c r="F236" t="n">
-        <v>0.04837320000000001</v>
+        <v>48.37320000000001</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>22.515</v>
       </c>
       <c r="F237" t="n">
-        <v>0.04881252000000001</v>
+        <v>48.81252000000001</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>22.68</v>
       </c>
       <c r="F238" t="n">
-        <v>0.04962384</v>
+        <v>49.62384</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>22.8</v>
       </c>
       <c r="F239" t="n">
-        <v>0.04943040000000001</v>
+        <v>49.43040000000001</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>23.055</v>
       </c>
       <c r="F240" t="n">
-        <v>0.05016768000000001</v>
+        <v>50.16768000000001</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>23.19</v>
       </c>
       <c r="F241" t="n">
-        <v>0.05092524</v>
+        <v>50.92524</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>23.265</v>
       </c>
       <c r="F242" t="n">
-        <v>0.05053158000000001</v>
+        <v>50.53158000000001</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>23.34</v>
       </c>
       <c r="F243" t="n">
-        <v>0.05088120000000001</v>
+        <v>50.88120000000001</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>23.625</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0511245</v>
+        <v>51.1245</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>23.79</v>
       </c>
       <c r="F245" t="n">
-        <v>0.05195736</v>
+        <v>51.95736</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>23.895</v>
       </c>
       <c r="F246" t="n">
-        <v>0.05170878</v>
+        <v>51.70878</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>24.015</v>
       </c>
       <c r="F247" t="n">
-        <v>0.05225664000000001</v>
+        <v>52.25664</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>24.285</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0529413</v>
+        <v>52.9413</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>24.51</v>
       </c>
       <c r="F249" t="n">
-        <v>0.05284356</v>
+        <v>52.84356</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>24.735</v>
       </c>
       <c r="F250" t="n">
-        <v>0.05372442</v>
+        <v>53.72442</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>24.81</v>
       </c>
       <c r="F251" t="n">
-        <v>0.05358959999999999</v>
+        <v>53.58959999999999</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>24.885</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0537516</v>
+        <v>53.7516</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>25.11</v>
       </c>
       <c r="F253" t="n">
-        <v>0.05484024</v>
+        <v>54.84024</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>25.2</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0548352</v>
+        <v>54.8352</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>25.305</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0551649</v>
+        <v>55.1649</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>25.425</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0552231</v>
+        <v>55.2231</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>25.62</v>
       </c>
       <c r="F257" t="n">
-        <v>0.05574912</v>
+        <v>55.74912</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>25.68</v>
       </c>
       <c r="F258" t="n">
-        <v>0.05587968</v>
+        <v>55.87968</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>26.055</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0567999</v>
+        <v>56.7999</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>26.34</v>
       </c>
       <c r="F260" t="n">
-        <v>0.05763192</v>
+        <v>57.63192</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>26.385</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0575193</v>
+        <v>57.5193</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>26.505</v>
       </c>
       <c r="F262" t="n">
-        <v>0.05746284</v>
+        <v>57.46284</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>26.625</v>
       </c>
       <c r="F263" t="n">
-        <v>0.05889450000000001</v>
+        <v>58.89450000000001</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>26.655</v>
       </c>
       <c r="F264" t="n">
-        <v>0.05800128</v>
+        <v>58.00128</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>26.76</v>
       </c>
       <c r="F265" t="n">
-        <v>0.05833679999999999</v>
+        <v>58.33679999999999</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>26.865</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0585657</v>
+        <v>58.5657</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>26.94</v>
       </c>
       <c r="F267" t="n">
-        <v>0.05883696</v>
+        <v>58.83696</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>27</v>
       </c>
       <c r="F268" t="n">
-        <v>0.05875200000000001</v>
+        <v>58.75200000000001</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>27.03</v>
       </c>
       <c r="F269" t="n">
-        <v>0.05881728</v>
+        <v>58.81728</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>27.135</v>
       </c>
       <c r="F270" t="n">
-        <v>0.05947992</v>
+        <v>59.47992</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>27.24</v>
       </c>
       <c r="F271" t="n">
-        <v>0.0593832</v>
+        <v>59.3832</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>27.3</v>
       </c>
       <c r="F272" t="n">
-        <v>0.059514</v>
+        <v>59.514</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>27.345</v>
       </c>
       <c r="F273" t="n">
-        <v>0.05939334</v>
+        <v>59.39334</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>27.465</v>
       </c>
       <c r="F274" t="n">
-        <v>0.06009342</v>
+        <v>60.09342</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>27.525</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0596742</v>
+        <v>59.6742</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>27.63</v>
       </c>
       <c r="F276" t="n">
-        <v>0.06056496</v>
+        <v>60.56496</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>27.675</v>
       </c>
       <c r="F277" t="n">
-        <v>0.05988870000000001</v>
+        <v>59.88870000000001</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>27.705</v>
       </c>
       <c r="F278" t="n">
-        <v>0.06061854000000001</v>
+        <v>60.61854000000001</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>27.765</v>
       </c>
       <c r="F279" t="n">
-        <v>0.05986134000000001</v>
+        <v>59.86134000000001</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>27.84</v>
       </c>
       <c r="F280" t="n">
-        <v>0.06024576</v>
+        <v>60.24576</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>28.005</v>
       </c>
       <c r="F281" t="n">
-        <v>0.06093888000000001</v>
+        <v>60.93888</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>28.035</v>
       </c>
       <c r="F282" t="n">
-        <v>0.06134058000000001</v>
+        <v>61.34058000000001</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>28.275</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0615264</v>
+        <v>61.5264</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>28.29</v>
       </c>
       <c r="F284" t="n">
-        <v>0.06201168000000001</v>
+        <v>62.01168000000001</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>28.395</v>
       </c>
       <c r="F285" t="n">
-        <v>0.06224184000000001</v>
+        <v>62.24184</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>28.35</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0620298</v>
+        <v>62.0298</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>28.35</v>
       </c>
       <c r="F287" t="n">
-        <v>0.061803</v>
+        <v>61.803</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>28.365</v>
       </c>
       <c r="F288" t="n">
-        <v>0.06160878</v>
+        <v>61.60878</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>28.395</v>
       </c>
       <c r="F289" t="n">
-        <v>0.06212826</v>
+        <v>62.12826</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>28.38</v>
       </c>
       <c r="F290" t="n">
-        <v>0.06175488</v>
+        <v>61.75488</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>28.395</v>
       </c>
       <c r="F291" t="n">
-        <v>0.06190110000000001</v>
+        <v>61.90110000000001</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>28.395</v>
       </c>
       <c r="F292" t="n">
-        <v>0.06167394</v>
+        <v>61.67393999999999</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>28.425</v>
       </c>
       <c r="F293" t="n">
-        <v>0.06173910000000001</v>
+        <v>61.73910000000001</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>28.395</v>
       </c>
       <c r="F294" t="n">
-        <v>0.06201468</v>
+        <v>62.01468000000001</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>28.395</v>
       </c>
       <c r="F295" t="n">
-        <v>0.06201468</v>
+        <v>62.01468000000001</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>28.425</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0619665</v>
+        <v>61.9665</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>28.395</v>
       </c>
       <c r="F297" t="n">
-        <v>0.06099246</v>
+        <v>60.99246</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>28.425</v>
       </c>
       <c r="F298" t="n">
-        <v>0.0616254</v>
+        <v>61.6254</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>28.425</v>
       </c>
       <c r="F299" t="n">
-        <v>0.06173910000000001</v>
+        <v>61.73910000000001</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>28.44</v>
       </c>
       <c r="F300" t="n">
-        <v>0.06188544</v>
+        <v>61.88544</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>28.425</v>
       </c>
       <c r="F301" t="n">
-        <v>0.06173910000000001</v>
+        <v>61.73910000000001</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>28.38</v>
       </c>
       <c r="F302" t="n">
-        <v>0.0618684</v>
+        <v>61.86839999999999</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>28.365</v>
       </c>
       <c r="F303" t="n">
-        <v>0.06206262000000001</v>
+        <v>62.06262000000001</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>28.35</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0616896</v>
+        <v>61.6896</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>28.32</v>
       </c>
       <c r="F305" t="n">
-        <v>0.06162432</v>
+        <v>61.62432</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>28.305</v>
       </c>
       <c r="F306" t="n">
-        <v>0.06181812</v>
+        <v>61.81812</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>28.35</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0621432</v>
+        <v>62.1432</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>28.335</v>
       </c>
       <c r="F308" t="n">
-        <v>0.06211032</v>
+        <v>62.11031999999999</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>28.305</v>
       </c>
       <c r="F309" t="n">
-        <v>0.06204456000000001</v>
+        <v>62.04456000000001</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>28.245</v>
       </c>
       <c r="F310" t="n">
-        <v>0.06134814</v>
+        <v>61.34814</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>28.155</v>
       </c>
       <c r="F311" t="n">
-        <v>0.06126528</v>
+        <v>61.26528</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>28.125</v>
       </c>
       <c r="F312" t="n">
-        <v>0.06131250000000001</v>
+        <v>61.31250000000001</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>27.945</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0609201</v>
+        <v>60.9201</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>27.93</v>
       </c>
       <c r="F314" t="n">
-        <v>0.06166944</v>
+        <v>61.66944</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>27.855</v>
       </c>
       <c r="F315" t="n">
-        <v>0.06116958</v>
+        <v>61.16958</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>27.795</v>
       </c>
       <c r="F316" t="n">
-        <v>0.06070428</v>
+        <v>60.70428</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>27.675</v>
       </c>
       <c r="F317" t="n">
-        <v>0.0603315</v>
+        <v>60.33150000000001</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>27.66</v>
       </c>
       <c r="F318" t="n">
-        <v>0.06040944</v>
+        <v>60.40944</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>27.63</v>
       </c>
       <c r="F319" t="n">
-        <v>0.06012288</v>
+        <v>60.12287999999999</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>27.615</v>
       </c>
       <c r="F320" t="n">
-        <v>0.06042162</v>
+        <v>60.42162</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>27.54</v>
       </c>
       <c r="F321" t="n">
-        <v>0.06025752</v>
+        <v>60.25752</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>27.39</v>
       </c>
       <c r="F322" t="n">
-        <v>0.05981976</v>
+        <v>59.81976</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>27.255</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0594159</v>
+        <v>59.4159</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>27.21</v>
       </c>
       <c r="F324" t="n">
-        <v>0.05964432</v>
+        <v>59.64432</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>27.015</v>
       </c>
       <c r="F325" t="n">
-        <v>0.05878464000000001</v>
+        <v>58.78464000000001</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>26.94</v>
       </c>
       <c r="F326" t="n">
-        <v>0.05851368</v>
+        <v>58.51368</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>26.85</v>
       </c>
       <c r="F327" t="n">
-        <v>0.0583182</v>
+        <v>58.3182</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>26.64</v>
       </c>
       <c r="F328" t="n">
-        <v>0.05818176000000001</v>
+        <v>58.18176000000001</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>26.58</v>
       </c>
       <c r="F329" t="n">
-        <v>0.05720016</v>
+        <v>57.20016</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>26.505</v>
       </c>
       <c r="F330" t="n">
-        <v>0.05788692</v>
+        <v>57.88692</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>26.415</v>
       </c>
       <c r="F331" t="n">
-        <v>0.05769036</v>
+        <v>57.69036000000001</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>26.325</v>
       </c>
       <c r="F332" t="n">
-        <v>0.0573885</v>
+        <v>57.3885</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>26.25</v>
       </c>
       <c r="F333" t="n">
-        <v>0.05733000000000001</v>
+        <v>57.33000000000001</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>26.205</v>
       </c>
       <c r="F334" t="n">
-        <v>0.0571269</v>
+        <v>57.1269</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>26.025</v>
       </c>
       <c r="F335" t="n">
-        <v>0.05673450000000001</v>
+        <v>56.7345</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>25.965</v>
       </c>
       <c r="F336" t="n">
-        <v>0.05618826</v>
+        <v>56.18826</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>25.845</v>
       </c>
       <c r="F337" t="n">
-        <v>0.05572182</v>
+        <v>55.72182</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>25.815</v>
       </c>
       <c r="F338" t="n">
-        <v>0.05617344</v>
+        <v>56.17344</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>25.74</v>
       </c>
       <c r="F339" t="n">
-        <v>0.0561132</v>
+        <v>56.1132</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>25.56</v>
       </c>
       <c r="F340" t="n">
-        <v>0.05592528</v>
+        <v>55.92528</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>25.485</v>
       </c>
       <c r="F341" t="n">
-        <v>0.05535342</v>
+        <v>55.35342</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>25.44</v>
       </c>
       <c r="F342" t="n">
-        <v>0.05586624</v>
+        <v>55.86624</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>25.365</v>
       </c>
       <c r="F343" t="n">
-        <v>0.05590446</v>
+        <v>55.90446</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>25.305</v>
       </c>
       <c r="F344" t="n">
-        <v>0.05546856000000001</v>
+        <v>55.46856</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>25.185</v>
       </c>
       <c r="F345" t="n">
-        <v>0.05500404</v>
+        <v>55.00404</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>25.095</v>
       </c>
       <c r="F346" t="n">
-        <v>0.05490786</v>
+        <v>54.90786</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>25.02</v>
       </c>
       <c r="F347" t="n">
-        <v>0.05484384</v>
+        <v>54.84384</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>24.945</v>
       </c>
       <c r="F348" t="n">
-        <v>0.05438010000000001</v>
+        <v>54.38010000000001</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>24.69</v>
       </c>
       <c r="F349" t="n">
-        <v>0.05362668</v>
+        <v>53.62668</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>24.6</v>
       </c>
       <c r="F350" t="n">
-        <v>0.0534312</v>
+        <v>53.4312</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>24.51</v>
       </c>
       <c r="F351" t="n">
-        <v>0.05313767999999999</v>
+        <v>53.13768</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>24.33</v>
       </c>
       <c r="F352" t="n">
-        <v>0.05294208</v>
+        <v>52.94208</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>24.255</v>
       </c>
       <c r="F353" t="n">
-        <v>0.05248782</v>
+        <v>52.48782</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>24.165</v>
       </c>
       <c r="F354" t="n">
-        <v>0.0521964</v>
+        <v>52.1964</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>24.03</v>
       </c>
       <c r="F355" t="n">
-        <v>0.05171256</v>
+        <v>51.71256</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>23.88</v>
       </c>
       <c r="F356" t="n">
-        <v>0.0520584</v>
+        <v>52.0584</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>23.715</v>
       </c>
       <c r="F357" t="n">
-        <v>0.0512244</v>
+        <v>51.2244</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>23.64</v>
       </c>
       <c r="F358" t="n">
-        <v>0.05172432</v>
+        <v>51.72432</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>23.595</v>
       </c>
       <c r="F359" t="n">
-        <v>0.05124834</v>
+        <v>51.24834000000001</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>23.535</v>
       </c>
       <c r="F360" t="n">
-        <v>0.05158872</v>
+        <v>51.58872</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>23.28</v>
       </c>
       <c r="F361" t="n">
-        <v>0.04981919999999999</v>
+        <v>49.81919999999999</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>23.25</v>
       </c>
       <c r="F362" t="n">
-        <v>0.050127</v>
+        <v>50.127</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>23.115</v>
       </c>
       <c r="F363" t="n">
-        <v>0.05011332</v>
+        <v>50.11332</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>22.935</v>
       </c>
       <c r="F364" t="n">
-        <v>0.05009004</v>
+        <v>50.09004</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>22.8</v>
       </c>
       <c r="F365" t="n">
-        <v>0.0498864</v>
+        <v>49.88639999999999</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>22.77</v>
       </c>
       <c r="F366" t="n">
-        <v>0.05000292000000001</v>
+        <v>50.00292000000001</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>22.74</v>
       </c>
       <c r="F367" t="n">
-        <v>0.04975512</v>
+        <v>49.75512</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>22.77</v>
       </c>
       <c r="F368" t="n">
-        <v>0.04945644</v>
+        <v>49.45644</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>22.8</v>
       </c>
       <c r="F369" t="n">
-        <v>0.04979520000000001</v>
+        <v>49.79520000000001</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>22.8</v>
       </c>
       <c r="F370" t="n">
-        <v>0.0499776</v>
+        <v>49.9776</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>22.8</v>
       </c>
       <c r="F371" t="n">
-        <v>0.04979520000000001</v>
+        <v>49.79520000000001</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>21.735</v>
       </c>
       <c r="F372" t="n">
-        <v>0.04546962</v>
+        <v>45.46962</v>
       </c>
     </row>
     <row r="373">
@@ -7843,7 +7843,7 @@
         <v>12.84</v>
       </c>
       <c r="F374" t="n">
-        <v>0.01545936</v>
+        <v>15.45936</v>
       </c>
     </row>
     <row r="375">
@@ -7923,7 +7923,7 @@
         <v>7.995</v>
       </c>
       <c r="F378" t="n">
-        <v>0.004189379999999999</v>
+        <v>4.189379999999999</v>
       </c>
     </row>
     <row r="379">
@@ -7963,7 +7963,7 @@
         <v>36.105</v>
       </c>
       <c r="F380" t="n">
-        <v>0.07885331999999999</v>
+        <v>78.85332</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>35.805</v>
       </c>
       <c r="F381" t="n">
-        <v>0.07690914000000001</v>
+        <v>76.90914000000001</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>31.665</v>
       </c>
       <c r="F382" t="n">
-        <v>0.05978352</v>
+        <v>59.78352</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>31.32</v>
       </c>
       <c r="F383" t="n">
-        <v>0.05662656000000001</v>
+        <v>56.62656000000001</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>36.045</v>
       </c>
       <c r="F384" t="n">
-        <v>0.07886646</v>
+        <v>78.86646</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>36.72</v>
       </c>
       <c r="F385" t="n">
-        <v>0.08019648000000001</v>
+        <v>80.19648000000001</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>59.88</v>
       </c>
       <c r="F386" t="n">
-        <v>0.1233528</v>
+        <v>123.3528</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>38.91</v>
       </c>
       <c r="F387" t="n">
-        <v>0.04482432</v>
+        <v>44.82432</v>
       </c>
     </row>
     <row r="388">
@@ -8143,7 +8143,7 @@
         <v>144.915</v>
       </c>
       <c r="F389" t="n">
-        <v>0.51415842</v>
+        <v>514.15842</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>144.975</v>
       </c>
       <c r="F390" t="n">
-        <v>0.6222326999999999</v>
+        <v>622.2326999999999</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>101.145</v>
       </c>
       <c r="F391" t="n">
-        <v>0.29291592</v>
+        <v>292.91592</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>119.955</v>
       </c>
       <c r="F392" t="n">
-        <v>0.4246407</v>
+        <v>424.6407</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>101.01</v>
       </c>
       <c r="F393" t="n">
-        <v>0.28121184</v>
+        <v>281.21184</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>109.53</v>
       </c>
       <c r="F394" t="n">
-        <v>0.3062458800000001</v>
+        <v>306.2458800000001</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>115.62</v>
       </c>
       <c r="F395" t="n">
-        <v>0.35102232</v>
+        <v>351.02232</v>
       </c>
     </row>
     <row r="396">
@@ -8343,7 +8343,7 @@
         <v>89.265</v>
       </c>
       <c r="F399" t="n">
-        <v>0.21744954</v>
+        <v>217.44954</v>
       </c>
     </row>
     <row r="400">
@@ -8403,7 +8403,7 @@
         <v>155.265</v>
       </c>
       <c r="F402" t="n">
-        <v>0.62230212</v>
+        <v>622.3021199999999</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>183.87</v>
       </c>
       <c r="F403" t="n">
-        <v>1.07600724</v>
+        <v>1076.00724</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>183.15</v>
       </c>
       <c r="F404" t="n">
-        <v>0.9384606</v>
+        <v>938.4606</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>187.23</v>
       </c>
       <c r="F405" t="n">
-        <v>0.917427</v>
+        <v>917.427</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>180.99</v>
       </c>
       <c r="F406" t="n">
-        <v>0.9628667999999999</v>
+        <v>962.8667999999999</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>33.69</v>
       </c>
       <c r="F407" t="n">
-        <v>0.02924292</v>
+        <v>29.24292</v>
       </c>
     </row>
     <row r="408">
@@ -8683,7 +8683,7 @@
         <v>52.845</v>
       </c>
       <c r="F416" t="n">
-        <v>0.07525127999999999</v>
+        <v>75.25127999999999</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>177.18</v>
       </c>
       <c r="F417" t="n">
-        <v>0.8249500799999999</v>
+        <v>824.95008</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>177.24</v>
       </c>
       <c r="F418" t="n">
-        <v>0.8103412799999998</v>
+        <v>810.3412799999999</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>171.255</v>
       </c>
       <c r="F419" t="n">
-        <v>0.7747576199999999</v>
+        <v>774.75762</v>
       </c>
     </row>
     <row r="420">
@@ -8863,7 +8863,7 @@
         <v>85.545</v>
       </c>
       <c r="F425" t="n">
-        <v>0.19709568</v>
+        <v>197.09568</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>171.21</v>
       </c>
       <c r="F426" t="n">
-        <v>0.7033306799999998</v>
+        <v>703.3306799999998</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>42.375</v>
       </c>
       <c r="F427" t="n">
-        <v>0.0232215</v>
+        <v>23.2215</v>
       </c>
     </row>
     <row r="428">
@@ -8963,7 +8963,7 @@
         <v>66.16499999999999</v>
       </c>
       <c r="F430" t="n">
-        <v>0.12862476</v>
+        <v>128.62476</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>31.47</v>
       </c>
       <c r="F431" t="n">
-        <v>0.01233624</v>
+        <v>12.33624</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>166.38</v>
       </c>
       <c r="F432" t="n">
-        <v>0.67017864</v>
+        <v>670.1786400000001</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>171.525</v>
       </c>
       <c r="F433" t="n">
-        <v>0.7869567000000001</v>
+        <v>786.9567000000001</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>164.19</v>
       </c>
       <c r="F434" t="n">
-        <v>0.7500199200000001</v>
+        <v>750.0199200000001</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>158.37</v>
       </c>
       <c r="F435" t="n">
-        <v>0.6499504800000001</v>
+        <v>649.9504800000001</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>34.5</v>
       </c>
       <c r="F436" t="n">
-        <v>0.049404</v>
+        <v>49.404</v>
       </c>
     </row>
     <row r="437">
@@ -9263,7 +9263,7 @@
         <v>140.64</v>
       </c>
       <c r="F445" t="n">
-        <v>0.51586752</v>
+        <v>515.86752</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>105.195</v>
       </c>
       <c r="F446" t="n">
-        <v>0.27182388</v>
+        <v>271.82388</v>
       </c>
     </row>
     <row r="447">
@@ -9503,7 +9503,7 @@
         <v>16.725</v>
       </c>
       <c r="F457" t="n">
-        <v>0.0084294</v>
+        <v>8.429399999999999</v>
       </c>
     </row>
     <row r="458">
@@ -9703,7 +9703,7 @@
         <v>94.92</v>
       </c>
       <c r="F467" t="n">
-        <v>0.27298992</v>
+        <v>272.98992</v>
       </c>
     </row>
     <row r="468">
@@ -9763,7 +9763,7 @@
         <v>2.16</v>
       </c>
       <c r="F470" t="n">
-        <v>0.00032832</v>
+        <v>0.32832</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>2.475</v>
       </c>
       <c r="F471" t="n">
-        <v>0.0001881</v>
+        <v>0.1881</v>
       </c>
     </row>
     <row r="472">
@@ -9863,7 +9863,7 @@
         <v>3.195</v>
       </c>
       <c r="F475" t="n">
-        <v>0.0005878799999999999</v>
+        <v>0.58788</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>1.365</v>
       </c>
       <c r="F476" t="n">
-        <v>9.828e-05</v>
+        <v>0.09828000000000001</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>6.734999999999999</v>
       </c>
       <c r="F477" t="n">
-        <v>0.00078126</v>
+        <v>0.78126</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>2.46</v>
       </c>
       <c r="F478" t="n">
-        <v>0.00027552</v>
+        <v>0.27552</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>3.24</v>
       </c>
       <c r="F479" t="n">
-        <v>0.0004795199999999999</v>
+        <v>0.4795199999999999</v>
       </c>
     </row>
     <row r="480">
@@ -10003,7 +10003,7 @@
         <v>5.55</v>
       </c>
       <c r="F482" t="n">
-        <v>0.0001998</v>
+        <v>0.1998</v>
       </c>
     </row>
     <row r="483">
@@ -10083,7 +10083,7 @@
         <v>49.23</v>
       </c>
       <c r="F486" t="n">
-        <v>0.07994952000000001</v>
+        <v>79.94952000000001</v>
       </c>
     </row>
     <row r="487">
@@ -10143,7 +10143,7 @@
         <v>2.37</v>
       </c>
       <c r="F489" t="n">
-        <v>0.00025596</v>
+        <v>0.25596</v>
       </c>
     </row>
     <row r="490">
@@ -10183,7 +10183,7 @@
         <v>13.71</v>
       </c>
       <c r="F491" t="n">
-        <v>0.01338096</v>
+        <v>13.38096</v>
       </c>
     </row>
     <row r="492">
